--- a/计算簿.xlsx
+++ b/计算簿.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27915" windowHeight="12495" activeTab="2"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7951" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7951" uniqueCount="41">
   <si>
     <t>070001.IB</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TF1209</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>标准差（百万）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -351,6 +347,14 @@
   </si>
   <si>
     <t>标准差（百万）</t>
+  </si>
+  <si>
+    <t>TF1209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF1209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -365,8 +369,8 @@
     <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="181" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
     <numFmt numFmtId="182" formatCode="0.000"/>
-    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="188" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -540,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,28 +755,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +820,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1231,11 +1228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455888256"/>
-        <c:axId val="455890432"/>
+        <c:axId val="127421824"/>
+        <c:axId val="127424000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="455888256"/>
+        <c:axId val="127421824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,14 +1254,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455890432"/>
+        <c:crossAx val="127424000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1274,7 +1270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455890432"/>
+        <c:axId val="127424000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,14 +1292,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455888256"/>
+        <c:crossAx val="127421824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,10 +1411,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>国债对冲!$A$1128:$A$1149</c:f>
+              <c:f>国债对冲!$A$1128:$A$1158</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-m-d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>41095</c:v>
                 </c:pt>
@@ -1486,15 +1481,42 @@
                 <c:pt idx="21">
                   <c:v>41124</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>41127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41129</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41134</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>国债对冲!$P$1129:$P$1149</c:f>
+              <c:f>国债对冲!$P$1129:$P$1158</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>6.3541999999999627E-2</c:v>
                 </c:pt>
@@ -1558,6 +1580,33 @@
                 <c:pt idx="20">
                   <c:v>6.256200000000034E-2</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4272999999999868E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.6211000000000142E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.800699999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.2576999999999443E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.2093000000000427E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.7087999999999976E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.10612300000000091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.12502700000000078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.12745700000000088</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1579,10 +1628,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>国债对冲!$A$1128:$A$1149</c:f>
+              <c:f>国债对冲!$A$1128:$A$1158</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-m-d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>41095</c:v>
                 </c:pt>
@@ -1649,15 +1698,42 @@
                 <c:pt idx="21">
                   <c:v>41124</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>41127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41129</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41134</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>国债对冲!$Q$1129:$Q$1149</c:f>
+              <c:f>国债对冲!$Q$1129:$Q$1158</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>-2.3355046596274676E-2</c:v>
                 </c:pt>
@@ -1721,6 +1797,33 @@
                 <c:pt idx="20">
                   <c:v>2.4037498064161542E-2</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7504721264476106E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4633940375737118E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.4775278735523565E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4133555718384913E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2895405292670092E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7574453396884526E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9015980084453629E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15939488591372086</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15696488591372076</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1736,11 +1839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455926144"/>
-        <c:axId val="455927680"/>
+        <c:axId val="674004352"/>
+        <c:axId val="674006144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455926144"/>
+        <c:axId val="674004352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1853,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455927680"/>
+        <c:crossAx val="674006144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1759,7 +1862,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455927680"/>
+        <c:axId val="674006144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455926144"/>
+        <c:crossAx val="674004352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1922,10 +2025,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>国债对冲!$A$1128:$A$1149</c:f>
+              <c:f>国债对冲!$A$1128:$A$1158</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-m-d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>41095</c:v>
                 </c:pt>
@@ -1992,15 +2095,42 @@
                 <c:pt idx="21">
                   <c:v>41124</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>41127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41129</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41134</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>国债对冲!$P$1129:$P$1149</c:f>
+              <c:f>国债对冲!$P$1129:$P$1158</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>6.3541999999999627E-2</c:v>
                 </c:pt>
@@ -2064,6 +2194,33 @@
                 <c:pt idx="20">
                   <c:v>6.256200000000034E-2</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4272999999999868E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.6211000000000142E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.800699999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.2576999999999443E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.2093000000000427E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.7087999999999976E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.10612300000000091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.12502700000000078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.12745700000000088</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2085,10 +2242,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>国债对冲!$A$1128:$A$1149</c:f>
+              <c:f>国债对冲!$A$1128:$A$1158</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-m-d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>41095</c:v>
                 </c:pt>
@@ -2155,15 +2312,42 @@
                 <c:pt idx="21">
                   <c:v>41124</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>41127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41129</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41134</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>国债对冲!$Q$1129:$Q$1149</c:f>
+              <c:f>国债对冲!$Q$1129:$Q$1158</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>-2.3355046596274676E-2</c:v>
                 </c:pt>
@@ -2227,6 +2411,33 @@
                 <c:pt idx="20">
                   <c:v>2.4037498064161542E-2</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7504721264476106E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4633940375737118E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.4775278735523565E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4133555718384913E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2895405292670092E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7574453396884526E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9015980084453629E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15939488591372086</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15696488591372076</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2242,11 +2453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457108864"/>
-        <c:axId val="458036352"/>
+        <c:axId val="674024448"/>
+        <c:axId val="127546112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457108864"/>
+        <c:axId val="674024448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2467,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458036352"/>
+        <c:crossAx val="127546112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2265,7 +2476,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458036352"/>
+        <c:axId val="127546112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2516,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457108864"/>
+        <c:crossAx val="674024448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2458,37 +2669,37 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.12367235307783846</c:v>
+                  <c:v>0.11327993737639525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11757392232569117</c:v>
+                  <c:v>0.10477435585740139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11167217618931408</c:v>
+                  <c:v>9.7102765556222589E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10599997210961042</c:v>
+                  <c:v>9.0477558057233579E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10059614638837104</c:v>
+                  <c:v>8.5143349389916578E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5506265122841022E-2</c:v>
+                  <c:v>8.135447977011924E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0783148853791365E-2</c:v>
+                  <c:v>7.9332671781555841E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.648690642216493E-2</c:v>
+                  <c:v>7.9213346383885247E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2684105351115783E-2</c:v>
+                  <c:v>8.1004911447804848E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9445635509598211E-2</c:v>
+                  <c:v>8.4586033788090653E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6842879656509988E-2</c:v>
+                  <c:v>8.9742735334584725E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2505,8 +2716,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326682880"/>
-        <c:axId val="459800576"/>
+        <c:axId val="127577088"/>
+        <c:axId val="127587456"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2571,40 +2782,40 @@
             <c:numRef>
               <c:f>期货对冲!$T$1167:$T$1177</c:f>
               <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.0818619709693503E-2</c:v>
+                  <c:v>9.8638818697891928E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9845417364931069E-2</c:v>
+                  <c:v>8.8551830627316475E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9146507900436164E-2</c:v>
+                  <c:v>7.9113948585456687E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8731684422405325E-2</c:v>
+                  <c:v>7.0586025629125915E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8606979570804817E-2</c:v>
+                  <c:v>6.3336696846685581E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8774240061233843E-2</c:v>
+                  <c:v>5.7848658763901155E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.923099253078104E-2</c:v>
+                  <c:v>5.4655077294937543E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9970622796752866E-2</c:v>
+                  <c:v>5.4163342100067166E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0982839078895623E-2</c:v>
+                  <c:v>5.6444112011636953E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.22543465683933E-2</c:v>
+                  <c:v>6.1188135566591036E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3769637071539362E-2</c:v>
+                  <c:v>6.7880911068199587E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,11 +2832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452418944"/>
-        <c:axId val="209100800"/>
+        <c:axId val="206705792"/>
+        <c:axId val="127589376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="326682880"/>
+        <c:axId val="127577088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2872,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459800576"/>
+        <c:crossAx val="127587456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2669,7 +2880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459800576"/>
+        <c:axId val="127587456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,12 +2920,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326682880"/>
+        <c:crossAx val="127577088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209100800"/>
+        <c:axId val="127589376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,16 +2950,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452418944"/>
+        <c:crossAx val="206705792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="452418944"/>
+        <c:axId val="206705792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +2969,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209100800"/>
+        <c:crossAx val="127589376"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2908,15 +3120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>1159</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1173</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>1184</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>1198</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2942,12 +3154,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.65148</cdr:x>
-      <cdr:y>0.1052</cdr:y>
+      <cdr:x>0.5977</cdr:x>
+      <cdr:y>0.11301</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65278</cdr:x>
-      <cdr:y>0.69621</cdr:y>
+      <cdr:x>0.599</cdr:x>
+      <cdr:y>0.70402</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -2956,8 +3168,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4846376" y="503021"/>
-          <a:ext cx="9649" cy="2825949"/>
+          <a:off x="4446327" y="551139"/>
+          <a:ext cx="9670" cy="2882238"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2987,11 +3199,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.71767</cdr:x>
+      <cdr:x>0.65877</cdr:x>
       <cdr:y>0.13907</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.82273</cdr:x>
+      <cdr:x>0.76383</cdr:x>
       <cdr:y>0.21772</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -3001,8 +3213,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5338746" y="664973"/>
-          <a:ext cx="781532" cy="376077"/>
+          <a:off x="4900616" y="678217"/>
+          <a:ext cx="781544" cy="383560"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3022,24 +3234,22 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.6735</cdr:x>
-      <cdr:y>0.1784</cdr:y>
+      <cdr:x>0.6082</cdr:x>
+      <cdr:y>0.17059</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.71767</cdr:x>
-      <cdr:y>0.17928</cdr:y>
+      <cdr:x>0.65237</cdr:x>
+      <cdr:y>0.17147</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
         <cdr:cNvPr id="8" name="直接箭头连接符 7"/>
-        <cdr:cNvCxnSpPr>
-          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="6" idx="1"/>
-        </cdr:cNvCxnSpPr>
+        <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="5010150" y="853012"/>
-          <a:ext cx="328596" cy="4238"/>
+          <a:off x="4524409" y="831921"/>
+          <a:ext cx="328582" cy="4292"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -3354,10 +3564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:Q13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3550,13 +3761,13 @@
         <v>5</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P8" s="34">
-        <v>99.658000000000001</v>
+        <v>99.664000000000001</v>
       </c>
       <c r="Q8" s="30">
-        <v>5.4108535628123411</v>
+        <v>6.12</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3712,7 +3923,7 @@
       </c>
       <c r="P13" s="13">
         <f ca="1">-M35</f>
-        <v>-34.696148627253692</v>
+        <v>-30.673934198324783</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="1"/>
@@ -4047,7 +4258,7 @@
     <row r="35" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M35" s="2">
         <f ca="1">L32*M32/Q8/P8</f>
-        <v>34.696148627253692</v>
+        <v>30.673934198324783</v>
       </c>
     </row>
   </sheetData>
@@ -4059,10 +4270,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U1235"/>
   <sheetViews>
-    <sheetView topLeftCell="A1077" workbookViewId="0">
-      <selection activeCell="N1129" sqref="N1129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31242,6 +31454,38 @@
       <c r="G1150" s="34">
         <v>101.379</v>
       </c>
+      <c r="I1150" s="65">
+        <f t="shared" ref="I1150:I1158" ca="1" si="9">B1150-B1149</f>
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="J1150" s="65">
+        <f t="shared" ref="J1150:J1158" ca="1" si="10">C1150-C1149</f>
+        <v>-6.4499999999995339E-2</v>
+      </c>
+      <c r="K1150" s="65">
+        <f t="shared" ref="K1150:K1158" ca="1" si="11">D1150-D1149</f>
+        <v>1.5000000000071623E-3</v>
+      </c>
+      <c r="L1150" s="65">
+        <f t="shared" ref="L1150:L1158" ca="1" si="12">E1150-E1149</f>
+        <v>-8.9800000000010982E-2</v>
+      </c>
+      <c r="M1150" s="65">
+        <f t="shared" ref="M1150:M1158" ca="1" si="13">F1150-F1149</f>
+        <v>-3.7199999999998568E-2</v>
+      </c>
+      <c r="N1150" s="65">
+        <f t="shared" ref="N1150:N1158" ca="1" si="14">G1150-G1149</f>
+        <v>-0.16539999999999111</v>
+      </c>
+      <c r="P1150" s="69">
+        <f t="shared" ref="P1150:P1158" ca="1" si="15">SUMPRODUCT($I$1128:$M$1128,I1150:M1150)/100+P1149</f>
+        <v>4.4272999999999868E-2</v>
+      </c>
+      <c r="Q1150" s="69">
+        <f t="shared" ref="Q1150:Q1158" ca="1" si="16">SUMPRODUCT(I1150:N1150,$I$1128:$N$1128)/100+Q1149</f>
+        <v>7.7504721264476106E-2</v>
+      </c>
     </row>
     <row r="1151" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A1151" s="17">
@@ -31265,6 +31509,38 @@
       <c r="G1151" s="34">
         <v>101.2462</v>
       </c>
+      <c r="I1151" s="65">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="J1151" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>-4.050000000000864E-2</v>
+      </c>
+      <c r="K1151" s="65">
+        <f t="shared" ca="1" si="11"/>
+        <v>-9.9800000000001887E-2</v>
+      </c>
+      <c r="L1151" s="65">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.23789999999999623</v>
+      </c>
+      <c r="M1151" s="65">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.13969999999999061</v>
+      </c>
+      <c r="N1151" s="65">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.13280000000000314</v>
+      </c>
+      <c r="P1151" s="69">
+        <f t="shared" ca="1" si="15"/>
+        <v>-1.6211000000000142E-2</v>
+      </c>
+      <c r="Q1151" s="69">
+        <f t="shared" ca="1" si="16"/>
+        <v>7.4633940375737118E-2</v>
+      </c>
     </row>
     <row r="1152" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A1152" s="17">
@@ -31288,10 +31564,39 @@
       <c r="G1152" s="34">
         <v>101.379</v>
       </c>
-      <c r="N1152" s="52"/>
+      <c r="I1152" s="65">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="J1152" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>-8.4799999999987108E-2</v>
+      </c>
+      <c r="K1152" s="65">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.10030000000000427</v>
+      </c>
+      <c r="L1152" s="65">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.1775999999999982</v>
+      </c>
+      <c r="M1152" s="65">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.46930000000000405</v>
+      </c>
+      <c r="N1152" s="65">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.13280000000000314</v>
+      </c>
       <c r="O1152" s="52"/>
-      <c r="P1152" s="52"/>
-      <c r="Q1152" s="52"/>
+      <c r="P1152" s="69">
+        <f t="shared" ca="1" si="15"/>
+        <v>-6.800699999999979E-2</v>
+      </c>
+      <c r="Q1152" s="69">
+        <f t="shared" ca="1" si="16"/>
+        <v>-3.4775278735523565E-2</v>
+      </c>
       <c r="R1152" s="52"/>
       <c r="S1152" s="52"/>
       <c r="T1152" s="52"/>
@@ -31319,11 +31624,39 @@
       <c r="G1153" s="34">
         <v>101.262</v>
       </c>
-      <c r="M1153" s="70"/>
-      <c r="N1153" s="46"/>
+      <c r="I1153" s="65">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.12000000000000455</v>
+      </c>
+      <c r="J1153" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>-7.6000000000007617E-2</v>
+      </c>
+      <c r="K1153" s="65">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="L1153" s="65">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.14700000000000557</v>
+      </c>
+      <c r="M1153" s="65">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.15899999999999181</v>
+      </c>
+      <c r="N1153" s="65">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.11700000000000443</v>
+      </c>
       <c r="O1153" s="46"/>
-      <c r="P1153" s="46"/>
-      <c r="Q1153" s="46"/>
+      <c r="P1153" s="69">
+        <f t="shared" ca="1" si="15"/>
+        <v>-8.2576999999999443E-2</v>
+      </c>
+      <c r="Q1153" s="69">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.4133555718384913E-3</v>
+      </c>
       <c r="R1153" s="46"/>
       <c r="S1153" s="46"/>
       <c r="T1153" s="52"/>
@@ -31351,14 +31684,37 @@
       <c r="G1154" s="34">
         <v>101.3058</v>
       </c>
-      <c r="M1154" s="70"/>
-      <c r="N1154" s="46"/>
-      <c r="O1154" s="36"/>
-      <c r="P1154" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1154" s="49" t="s">
-        <v>20</v>
+      <c r="I1154" s="65">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="J1154" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.10739999999999839</v>
+      </c>
+      <c r="K1154" s="65">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12779999999999347</v>
+      </c>
+      <c r="L1154" s="65">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.17539999999999623</v>
+      </c>
+      <c r="M1154" s="65">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.27620000000000289</v>
+      </c>
+      <c r="N1154" s="65">
+        <f t="shared" ca="1" si="14"/>
+        <v>4.3800000000004502E-2</v>
+      </c>
+      <c r="P1154" s="69">
+        <f t="shared" ca="1" si="15"/>
+        <v>-3.2093000000000427E-2</v>
+      </c>
+      <c r="Q1154" s="69">
+        <f t="shared" ca="1" si="16"/>
+        <v>3.2895405292670092E-2</v>
       </c>
       <c r="R1154" s="46"/>
       <c r="S1154" s="46"/>
@@ -31387,25 +31743,44 @@
       <c r="G1155" s="34">
         <v>101.1913</v>
       </c>
-      <c r="M1155" s="70"/>
-      <c r="N1155" s="46"/>
-      <c r="O1155" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1155" s="63">
-        <f ca="1">SQRT(SUMSQ(P1129:P1149)/COUNT(P1129:P1149))</f>
-        <v>0.12367235307783846</v>
-      </c>
-      <c r="Q1155" s="63">
-        <f ca="1">SQRT(SUMSQ(Q1129:Q1149)/COUNT(Q1129:Q1149))</f>
-        <v>4.7345773981207213E-2</v>
+      <c r="I1155" s="65">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="J1155" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.9499999999999886E-2</v>
+      </c>
+      <c r="K1155" s="65">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.3200000000002774E-2</v>
+      </c>
+      <c r="L1155" s="65">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.23760000000000048</v>
+      </c>
+      <c r="M1155" s="65">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.80749999999999034</v>
+      </c>
+      <c r="N1155" s="65">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.11450000000000671</v>
+      </c>
+      <c r="P1155" s="69">
+        <f t="shared" ca="1" si="15"/>
+        <v>-7.7087999999999976E-2</v>
+      </c>
+      <c r="Q1155" s="69">
+        <f t="shared" ca="1" si="16"/>
+        <v>3.7574453396884526E-2</v>
       </c>
       <c r="R1155" s="46"/>
       <c r="S1155" s="46"/>
       <c r="T1155" s="52"/>
       <c r="U1155" s="52"/>
     </row>
-    <row r="1156" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A1156" s="17">
         <v>41135</v>
       </c>
@@ -31427,18 +31802,37 @@
       <c r="G1156" s="34">
         <v>101.0519</v>
       </c>
-      <c r="M1156" s="70"/>
-      <c r="N1156" s="46"/>
-      <c r="O1156" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1156" s="72">
-        <f ca="1">_xlfn.STDEV.P(P1129:P1149)</f>
-        <v>6.0818619709693503E-2</v>
-      </c>
-      <c r="Q1156" s="72">
-        <f ca="1">_xlfn.STDEV.P(Q1129:Q1149)</f>
-        <v>4.3817163988060709E-2</v>
+      <c r="I1156" s="65">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.0000000000006253E-2</v>
+      </c>
+      <c r="J1156" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.16629999999999256</v>
+      </c>
+      <c r="K1156" s="65">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.14809999999999945</v>
+      </c>
+      <c r="L1156" s="65">
+        <f t="shared" ca="1" si="12"/>
+        <v>-8.840000000000714E-2</v>
+      </c>
+      <c r="M1156" s="65">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.46750000000000114</v>
+      </c>
+      <c r="N1156" s="65">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.13939999999999486</v>
+      </c>
+      <c r="P1156" s="69">
+        <f t="shared" ca="1" si="15"/>
+        <v>-0.10612300000000091</v>
+      </c>
+      <c r="Q1156" s="69">
+        <f t="shared" ca="1" si="16"/>
+        <v>6.9015980084453629E-2</v>
       </c>
       <c r="R1156" s="46"/>
       <c r="S1156" s="46"/>
@@ -31467,11 +31861,39 @@
       <c r="G1157" s="34">
         <v>100.8</v>
       </c>
-      <c r="M1157" s="70"/>
-      <c r="N1157" s="46"/>
+      <c r="I1157" s="65">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.12000000000000455</v>
+      </c>
+      <c r="J1157" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1.8600000000006389E-2</v>
+      </c>
+      <c r="K1157" s="65">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.0000000000331966E-4</v>
+      </c>
+      <c r="L1157" s="65">
+        <f t="shared" ca="1" si="12"/>
+        <v>-4.4399999999995998E-2</v>
+      </c>
+      <c r="M1157" s="65">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.26620000000001198</v>
+      </c>
+      <c r="N1157" s="65">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.25190000000000623</v>
+      </c>
       <c r="O1157" s="46"/>
-      <c r="P1157" s="46"/>
-      <c r="Q1157" s="46"/>
+      <c r="P1157" s="69">
+        <f t="shared" ca="1" si="15"/>
+        <v>-0.12502700000000078</v>
+      </c>
+      <c r="Q1157" s="69">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.15939488591372086</v>
+      </c>
       <c r="R1157" s="46"/>
       <c r="S1157" s="46"/>
       <c r="T1157" s="52"/>
@@ -31499,10 +31921,39 @@
       <c r="G1158" s="34">
         <v>100.8</v>
       </c>
-      <c r="N1158" s="52"/>
+      <c r="I1158" s="65">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.37999999999999545</v>
+      </c>
+      <c r="J1158" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.12099999999999511</v>
+      </c>
+      <c r="K1158" s="65">
+        <f t="shared" ca="1" si="11"/>
+        <v>-6.9000000000002615E-2</v>
+      </c>
+      <c r="L1158" s="65">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.1839999999999975</v>
+      </c>
+      <c r="M1158" s="65">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.6000000000003638E-2</v>
+      </c>
+      <c r="N1158" s="65">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
       <c r="O1158" s="52"/>
-      <c r="P1158" s="52"/>
-      <c r="Q1158" s="52"/>
+      <c r="P1158" s="69">
+        <f t="shared" ca="1" si="15"/>
+        <v>-0.12745700000000088</v>
+      </c>
+      <c r="Q1158" s="69">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.15696488591372076</v>
+      </c>
       <c r="R1158" s="52"/>
       <c r="S1158" s="52"/>
       <c r="T1158" s="52"/>
@@ -31555,29 +32006,58 @@
       <c r="F1162" s="34"/>
       <c r="G1162" s="34"/>
     </row>
-    <row r="1163" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+    <row r="1163" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1163" s="34"/>
       <c r="C1163" s="34"/>
       <c r="D1163" s="34"/>
       <c r="E1163" s="34"/>
       <c r="F1163" s="34"/>
       <c r="G1163" s="34"/>
-    </row>
-    <row r="1164" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="O1163" s="36"/>
+      <c r="P1163" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1163" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1164" s="34"/>
       <c r="C1164" s="34"/>
       <c r="D1164" s="34"/>
       <c r="E1164" s="34"/>
       <c r="F1164" s="34"/>
       <c r="G1164" s="34"/>
-    </row>
-    <row r="1165" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="O1164" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1164" s="63">
+        <f ca="1">SQRT(SUMSQ(P1129:P1158)/COUNT(P1129:P1158))</f>
+        <v>0.11327993737639525</v>
+      </c>
+      <c r="Q1164" s="63">
+        <f ca="1">SQRT(SUMSQ(Q1129:Q1158)/COUNT(Q1129:Q1158))</f>
+        <v>6.2493853260590509E-2</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1165" s="34"/>
       <c r="C1165" s="34"/>
       <c r="D1165" s="34"/>
       <c r="E1165" s="34"/>
       <c r="F1165" s="34"/>
       <c r="G1165" s="34"/>
+      <c r="O1165" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1165" s="71">
+        <f ca="1">_xlfn.STDEV.P(P1129:P1158)</f>
+        <v>9.8638818697891928E-2</v>
+      </c>
+      <c r="Q1165" s="71">
+        <f ca="1">_xlfn.STDEV.P(Q1129:Q1158)</f>
+        <v>6.2144436006438916E-2</v>
+      </c>
     </row>
     <row r="1166" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="B1166" s="34"/>
@@ -32148,17 +32628,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1153" workbookViewId="0">
-      <selection activeCell="T1157" sqref="T1157"/>
+    <sheetView tabSelected="1" topLeftCell="A1157" workbookViewId="0">
+      <selection activeCell="I1167" sqref="I1167:K1169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="64"/>
     <col min="2" max="2" width="8.75" style="64" customWidth="1"/>
-    <col min="3" max="14" width="9" style="64"/>
+    <col min="3" max="8" width="9" style="64"/>
+    <col min="9" max="9" width="16.375" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="64"/>
     <col min="15" max="15" width="16.375" style="64" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.375" style="64" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.5" style="64" bestFit="1" customWidth="1"/>
@@ -32188,7 +32673,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K1" s="53">
         <v>40953</v>
@@ -60426,8 +60911,7 @@
         <v>2</v>
       </c>
       <c r="N1128" s="67">
-        <f ca="1">ROUND(Sheet1!P13,0)</f>
-        <v>-35</v>
+        <v>-31</v>
       </c>
       <c r="P1128" s="65" t="s">
         <v>19</v>
@@ -60545,7 +61029,7 @@
       </c>
       <c r="Q1130" s="69">
         <f ca="1">SUMPRODUCT(I1130:N1130,$I$1128:$N$1128)/100+Q1129</f>
-        <v>0.17801600000000192</v>
+        <v>0.17609600000000186</v>
       </c>
     </row>
     <row r="1131" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -60601,7 +61085,7 @@
       </c>
       <c r="Q1131" s="69">
         <f t="shared" ref="Q1131:Q1149" ca="1" si="22">SUMPRODUCT(I1131:N1131,$I$1128:$N$1128)/100+Q1130</f>
-        <v>0.17394899999999935</v>
+        <v>0.17562899999999942</v>
       </c>
     </row>
     <row r="1132" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -60657,7 +61141,7 @@
       </c>
       <c r="Q1132" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>0.12608100000000319</v>
+        <v>0.13376100000000293</v>
       </c>
     </row>
     <row r="1133" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -60713,7 +61197,7 @@
       </c>
       <c r="Q1133" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>6.0291999999999027E-2</v>
+        <v>7.2771999999998949E-2</v>
       </c>
     </row>
     <row r="1134" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -60769,7 +61253,7 @@
       </c>
       <c r="Q1134" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>0.14957200000000126</v>
+        <v>0.15885200000000127</v>
       </c>
     </row>
     <row r="1135" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -60825,7 +61309,7 @@
       </c>
       <c r="Q1135" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>0.11736900000000117</v>
+        <v>0.1244890000000011</v>
       </c>
     </row>
     <row r="1136" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -60881,7 +61365,7 @@
       </c>
       <c r="Q1136" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>2.8165999999999206E-2</v>
+        <v>3.3765999999999269E-2</v>
       </c>
     </row>
     <row r="1137" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -60937,7 +61421,7 @@
       </c>
       <c r="Q1137" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>0.12711600000000173</v>
+        <v>0.13159600000000155</v>
       </c>
     </row>
     <row r="1138" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -60993,7 +61477,7 @@
       </c>
       <c r="Q1138" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>8.804000000001061E-3</v>
+        <v>1.2804000000000856E-2</v>
       </c>
     </row>
     <row r="1139" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61049,7 +61533,7 @@
       </c>
       <c r="Q1139" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>4.0705999999999687E-2</v>
+        <v>4.390599999999964E-2</v>
       </c>
     </row>
     <row r="1140" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61105,7 +61589,7 @@
       </c>
       <c r="Q1140" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>1.5406000000000669E-2</v>
+        <v>1.980600000000067E-2</v>
       </c>
     </row>
     <row r="1141" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61161,7 +61645,7 @@
       </c>
       <c r="Q1141" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>-2.0051000000001429E-2</v>
+        <v>-1.2771000000001316E-2</v>
       </c>
     </row>
     <row r="1142" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61217,7 +61701,7 @@
       </c>
       <c r="Q1142" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6501000000002062E-2</v>
+        <v>9.3381000000001962E-2</v>
       </c>
     </row>
     <row r="1143" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61273,7 +61757,7 @@
       </c>
       <c r="Q1143" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.7656999999997133E-2</v>
+        <v>-1.1176999999997439E-2</v>
       </c>
     </row>
     <row r="1144" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61329,7 +61813,7 @@
       </c>
       <c r="Q1144" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>-2.0139999999998843E-2</v>
+        <v>-1.3019999999998935E-2</v>
       </c>
     </row>
     <row r="1145" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61385,7 +61869,7 @@
       </c>
       <c r="Q1145" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>4.0796000000001956E-2</v>
+        <v>4.9676000000001747E-2</v>
       </c>
     </row>
     <row r="1146" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61441,7 +61925,7 @@
       </c>
       <c r="Q1146" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>3.5941000000000091E-2</v>
+        <v>4.2820999999999998E-2</v>
       </c>
     </row>
     <row r="1147" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61497,7 +61981,7 @@
       </c>
       <c r="Q1147" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>2.1410000000001875E-2</v>
+        <v>2.4690000000001645E-2</v>
       </c>
     </row>
     <row r="1148" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61553,7 +62037,7 @@
       </c>
       <c r="Q1148" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>5.5492999999999862E-2</v>
+        <v>5.6692999999999924E-2</v>
       </c>
     </row>
     <row r="1149" spans="1:21" s="65" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -61609,7 +62093,7 @@
       </c>
       <c r="Q1149" s="69">
         <f t="shared" ca="1" si="22"/>
-        <v>3.7361999999999382E-2</v>
+        <v>4.02419999999995E-2</v>
       </c>
     </row>
     <row r="1150" spans="1:21" ht="15" x14ac:dyDescent="0.15">
@@ -61635,6 +62119,38 @@
         <f t="shared" ca="1" si="17"/>
         <v>99.697999999999993</v>
       </c>
+      <c r="I1150" s="65">
+        <f t="shared" ref="I1150:I1158" ca="1" si="23">B1150-B1149</f>
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="J1150" s="65">
+        <f t="shared" ref="J1150:J1158" ca="1" si="24">C1150-C1149</f>
+        <v>-6.4499999999995339E-2</v>
+      </c>
+      <c r="K1150" s="65">
+        <f t="shared" ref="K1150:K1158" ca="1" si="25">D1150-D1149</f>
+        <v>1.5000000000071623E-3</v>
+      </c>
+      <c r="L1150" s="65">
+        <f t="shared" ref="L1150:L1158" ca="1" si="26">E1150-E1149</f>
+        <v>-8.9800000000010982E-2</v>
+      </c>
+      <c r="M1150" s="65">
+        <f t="shared" ref="M1150:M1158" ca="1" si="27">F1150-F1149</f>
+        <v>-3.7199999999998568E-2</v>
+      </c>
+      <c r="N1150" s="65">
+        <f t="shared" ref="N1150:N1158" ca="1" si="28">G1150-G1149</f>
+        <v>-3.2000000000010687E-2</v>
+      </c>
+      <c r="P1150" s="69">
+        <f t="shared" ref="P1150:P1158" ca="1" si="29">SUMPRODUCT($I$1128:$M$1128,I1150:M1150)/100+P1149</f>
+        <v>4.4272999999999868E-2</v>
+      </c>
+      <c r="Q1150" s="69">
+        <f t="shared" ref="Q1150:Q1158" ca="1" si="30">SUMPRODUCT(I1150:N1150,$I$1128:$N$1128)/100+Q1149</f>
+        <v>3.1873000000002344E-2</v>
+      </c>
     </row>
     <row r="1151" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A1151" s="17">
@@ -61659,6 +62175,38 @@
         <f t="shared" ca="1" si="17"/>
         <v>99.658000000000001</v>
       </c>
+      <c r="I1151" s="65">
+        <f t="shared" ca="1" si="23"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="J1151" s="65">
+        <f t="shared" ca="1" si="24"/>
+        <v>-4.050000000000864E-2</v>
+      </c>
+      <c r="K1151" s="65">
+        <f t="shared" ca="1" si="25"/>
+        <v>-9.9800000000001887E-2</v>
+      </c>
+      <c r="L1151" s="65">
+        <f t="shared" ca="1" si="26"/>
+        <v>-0.23789999999999623</v>
+      </c>
+      <c r="M1151" s="65">
+        <f t="shared" ca="1" si="27"/>
+        <v>-0.13969999999999061</v>
+      </c>
+      <c r="N1151" s="65">
+        <f t="shared" ca="1" si="28"/>
+        <v>-3.9999999999992042E-2</v>
+      </c>
+      <c r="P1151" s="69">
+        <f t="shared" ca="1" si="29"/>
+        <v>-1.6211000000000142E-2</v>
+      </c>
+      <c r="Q1151" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>-1.6211000000000135E-2</v>
+      </c>
     </row>
     <row r="1152" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A1152" s="17">
@@ -61683,10 +62231,39 @@
         <f t="shared" ca="1" si="17"/>
         <v>99.382000000000005</v>
       </c>
-      <c r="N1152" s="52"/>
+      <c r="I1152" s="65">
+        <f t="shared" ca="1" si="23"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="J1152" s="65">
+        <f t="shared" ca="1" si="24"/>
+        <v>-8.4799999999987108E-2</v>
+      </c>
+      <c r="K1152" s="65">
+        <f t="shared" ca="1" si="25"/>
+        <v>-0.10030000000000427</v>
+      </c>
+      <c r="L1152" s="65">
+        <f t="shared" ca="1" si="26"/>
+        <v>-0.1775999999999982</v>
+      </c>
+      <c r="M1152" s="65">
+        <f t="shared" ca="1" si="27"/>
+        <v>-0.46930000000000405</v>
+      </c>
+      <c r="N1152" s="65">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.27599999999999625</v>
+      </c>
       <c r="O1152" s="52"/>
-      <c r="P1152" s="52"/>
-      <c r="Q1152" s="52"/>
+      <c r="P1152" s="69">
+        <f t="shared" ca="1" si="29"/>
+        <v>-6.800699999999979E-2</v>
+      </c>
+      <c r="Q1152" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.7552999999999049E-2</v>
+      </c>
       <c r="R1152" s="52"/>
       <c r="S1152" s="52"/>
       <c r="T1152" s="52"/>
@@ -61715,11 +62292,39 @@
         <f t="shared" ca="1" si="17"/>
         <v>99.4</v>
       </c>
-      <c r="M1153" s="70"/>
-      <c r="N1153" s="46"/>
+      <c r="I1153" s="65">
+        <f t="shared" ca="1" si="23"/>
+        <v>-0.12000000000000455</v>
+      </c>
+      <c r="J1153" s="65">
+        <f t="shared" ca="1" si="24"/>
+        <v>-7.6000000000007617E-2</v>
+      </c>
+      <c r="K1153" s="65">
+        <f t="shared" ca="1" si="25"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="L1153" s="65">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.14700000000000557</v>
+      </c>
+      <c r="M1153" s="65">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.15899999999999181</v>
+      </c>
+      <c r="N1153" s="65">
+        <f t="shared" ca="1" si="28"/>
+        <v>1.8000000000000682E-2</v>
+      </c>
       <c r="O1153" s="46"/>
-      <c r="P1153" s="46"/>
-      <c r="Q1153" s="46"/>
+      <c r="P1153" s="69">
+        <f t="shared" ca="1" si="29"/>
+        <v>-8.2576999999999443E-2</v>
+      </c>
+      <c r="Q1153" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>-2.5970000000008139E-3</v>
+      </c>
       <c r="R1153" s="46"/>
       <c r="S1153" s="46"/>
       <c r="T1153" s="52"/>
@@ -61748,14 +62353,37 @@
         <f t="shared" ca="1" si="17"/>
         <v>99.29</v>
       </c>
-      <c r="M1154" s="70"/>
-      <c r="N1154" s="46"/>
-      <c r="O1154" s="36"/>
-      <c r="P1154" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1154" s="49" t="s">
-        <v>20</v>
+      <c r="I1154" s="65">
+        <f t="shared" ca="1" si="23"/>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="J1154" s="65">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.10739999999999839</v>
+      </c>
+      <c r="K1154" s="65">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.12779999999999347</v>
+      </c>
+      <c r="L1154" s="65">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.17539999999999623</v>
+      </c>
+      <c r="M1154" s="65">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.27620000000000289</v>
+      </c>
+      <c r="N1154" s="65">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="P1154" s="69">
+        <f t="shared" ca="1" si="29"/>
+        <v>-3.2093000000000427E-2</v>
+      </c>
+      <c r="Q1154" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>8.1986999999998034E-2</v>
       </c>
       <c r="R1154" s="46"/>
       <c r="S1154" s="46"/>
@@ -61782,28 +62410,47 @@
         <v>102.28570000000001</v>
       </c>
       <c r="G1155" s="34">
-        <f t="shared" ref="G1155:G1159" ca="1" si="23">VLOOKUP(A1155,$K$1:$M$128,2,FALSE)</f>
+        <f t="shared" ref="G1155:G1159" ca="1" si="31">VLOOKUP(A1155,$K$1:$M$128,2,FALSE)</f>
         <v>99.236000000000004</v>
       </c>
-      <c r="M1155" s="70"/>
-      <c r="N1155" s="46"/>
-      <c r="O1155" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1155" s="63">
-        <f ca="1">SQRT(SUMSQ(P1129:P1149)/COUNT(P1129:P1149))</f>
-        <v>0.12367235307783846</v>
-      </c>
-      <c r="Q1155" s="63">
-        <f ca="1">SQRT(SUMSQ(Q1129:Q1149)/COUNT(Q1129:Q1149))</f>
-        <v>8.648690642216493E-2</v>
+      <c r="I1155" s="65">
+        <f t="shared" ca="1" si="23"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="J1155" s="65">
+        <f t="shared" ca="1" si="24"/>
+        <v>5.9499999999999886E-2</v>
+      </c>
+      <c r="K1155" s="65">
+        <f t="shared" ca="1" si="25"/>
+        <v>2.3200000000002774E-2</v>
+      </c>
+      <c r="L1155" s="65">
+        <f t="shared" ca="1" si="26"/>
+        <v>-0.23760000000000048</v>
+      </c>
+      <c r="M1155" s="65">
+        <f t="shared" ca="1" si="27"/>
+        <v>-0.80749999999999034</v>
+      </c>
+      <c r="N1155" s="65">
+        <f t="shared" ca="1" si="28"/>
+        <v>-5.4000000000002046E-2</v>
+      </c>
+      <c r="P1155" s="69">
+        <f t="shared" ca="1" si="29"/>
+        <v>-7.7087999999999976E-2</v>
+      </c>
+      <c r="Q1155" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.3731999999999114E-2</v>
       </c>
       <c r="R1155" s="46"/>
       <c r="S1155" s="46"/>
       <c r="T1155" s="52"/>
       <c r="U1155" s="52"/>
     </row>
-    <row r="1156" spans="1:26" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1156" s="17">
         <v>41135</v>
       </c>
@@ -61823,21 +62470,40 @@
         <v>102.75320000000001</v>
       </c>
       <c r="G1156" s="34">
+        <f t="shared" ca="1" si="31"/>
+        <v>99.18</v>
+      </c>
+      <c r="I1156" s="65">
         <f t="shared" ca="1" si="23"/>
-        <v>99.18</v>
-      </c>
-      <c r="M1156" s="70"/>
-      <c r="N1156" s="46"/>
-      <c r="O1156" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1156" s="72">
-        <f ca="1">_xlfn.STDEV.P(P1129:P1149)</f>
-        <v>6.0818619709693503E-2</v>
-      </c>
-      <c r="Q1156" s="72">
-        <f ca="1">_xlfn.STDEV.P(Q1129:Q1149)</f>
-        <v>5.9970622796752866E-2</v>
+        <v>-4.0000000000006253E-2</v>
+      </c>
+      <c r="J1156" s="65">
+        <f t="shared" ca="1" si="24"/>
+        <v>-0.16629999999999256</v>
+      </c>
+      <c r="K1156" s="65">
+        <f t="shared" ca="1" si="25"/>
+        <v>-0.14809999999999945</v>
+      </c>
+      <c r="L1156" s="65">
+        <f t="shared" ca="1" si="26"/>
+        <v>-8.840000000000714E-2</v>
+      </c>
+      <c r="M1156" s="65">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.46750000000000114</v>
+      </c>
+      <c r="N1156" s="65">
+        <f t="shared" ca="1" si="28"/>
+        <v>-5.5999999999997385E-2</v>
+      </c>
+      <c r="P1156" s="69">
+        <f t="shared" ca="1" si="29"/>
+        <v>-0.10612300000000091</v>
+      </c>
+      <c r="Q1156" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>4.2056999999997367E-2</v>
       </c>
       <c r="R1156" s="46"/>
       <c r="S1156" s="46"/>
@@ -61864,14 +62530,42 @@
         <v>102.48699999999999</v>
       </c>
       <c r="G1157" s="34">
+        <f t="shared" ca="1" si="31"/>
+        <v>99.126000000000005</v>
+      </c>
+      <c r="I1157" s="65">
         <f t="shared" ca="1" si="23"/>
-        <v>99.126000000000005</v>
-      </c>
-      <c r="M1157" s="70"/>
-      <c r="N1157" s="46"/>
+        <v>-0.12000000000000455</v>
+      </c>
+      <c r="J1157" s="65">
+        <f t="shared" ca="1" si="24"/>
+        <v>-1.8600000000006389E-2</v>
+      </c>
+      <c r="K1157" s="65">
+        <f t="shared" ca="1" si="25"/>
+        <v>1.0000000000331966E-4</v>
+      </c>
+      <c r="L1157" s="65">
+        <f t="shared" ca="1" si="26"/>
+        <v>-4.4399999999995998E-2</v>
+      </c>
+      <c r="M1157" s="65">
+        <f t="shared" ca="1" si="27"/>
+        <v>-0.26620000000001198</v>
+      </c>
+      <c r="N1157" s="65">
+        <f t="shared" ca="1" si="28"/>
+        <v>-5.4000000000002046E-2</v>
+      </c>
       <c r="O1157" s="46"/>
-      <c r="P1157" s="46"/>
-      <c r="Q1157" s="46"/>
+      <c r="P1157" s="69">
+        <f t="shared" ca="1" si="29"/>
+        <v>-0.12502700000000078</v>
+      </c>
+      <c r="Q1157" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>3.9892999999998145E-2</v>
+      </c>
       <c r="R1157" s="46"/>
       <c r="S1157" s="46"/>
       <c r="T1157" s="52"/>
@@ -61897,13 +62591,42 @@
         <v>102.583</v>
       </c>
       <c r="G1158" s="34">
+        <f t="shared" ca="1" si="31"/>
+        <v>99.05</v>
+      </c>
+      <c r="I1158" s="65">
         <f t="shared" ca="1" si="23"/>
-        <v>99.05</v>
-      </c>
-      <c r="N1158" s="52"/>
+        <v>-0.37999999999999545</v>
+      </c>
+      <c r="J1158" s="65">
+        <f t="shared" ca="1" si="24"/>
+        <v>-0.12099999999999511</v>
+      </c>
+      <c r="K1158" s="65">
+        <f t="shared" ca="1" si="25"/>
+        <v>-6.9000000000002615E-2</v>
+      </c>
+      <c r="L1158" s="65">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.1839999999999975</v>
+      </c>
+      <c r="M1158" s="65">
+        <f t="shared" ca="1" si="27"/>
+        <v>9.6000000000003638E-2</v>
+      </c>
+      <c r="N1158" s="65">
+        <f t="shared" ca="1" si="28"/>
+        <v>-7.6000000000007617E-2</v>
+      </c>
       <c r="O1158" s="52"/>
-      <c r="P1158" s="52"/>
-      <c r="Q1158" s="52"/>
+      <c r="P1158" s="69">
+        <f t="shared" ca="1" si="29"/>
+        <v>-0.12745700000000088</v>
+      </c>
+      <c r="Q1158" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>6.102300000000041E-2</v>
+      </c>
       <c r="R1158" s="52"/>
       <c r="S1158" s="52"/>
       <c r="T1158" s="52"/>
@@ -61929,7 +62652,7 @@
         <v>102.55500000000001</v>
       </c>
       <c r="G1159" s="34">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="31"/>
         <v>98.95</v>
       </c>
     </row>
@@ -61982,37 +62705,37 @@
       <c r="F1161" s="34"/>
       <c r="G1161" s="34"/>
       <c r="P1161" s="63">
-        <v>0.12367235307783846</v>
+        <v>0.11327993737639525</v>
       </c>
       <c r="Q1161" s="63">
-        <v>0.11757392232569117</v>
+        <v>0.10477435585740139</v>
       </c>
       <c r="R1161" s="64">
-        <v>0.11167217618931408</v>
+        <v>9.7102765556222589E-2</v>
       </c>
       <c r="S1161" s="63">
-        <v>0.10599997210961042</v>
+        <v>9.0477558057233579E-2</v>
       </c>
       <c r="T1161" s="64">
-        <v>0.10059614638837104</v>
+        <v>8.5143349389916578E-2</v>
       </c>
       <c r="U1161" s="64">
-        <v>9.5506265122841022E-2</v>
+        <v>8.135447977011924E-2</v>
       </c>
       <c r="V1161" s="64">
-        <v>9.0783148853791365E-2</v>
+        <v>7.9332671781555841E-2</v>
       </c>
       <c r="W1161" s="64">
-        <v>8.648690642216493E-2</v>
+        <v>7.9213346383885247E-2</v>
       </c>
       <c r="X1161" s="64">
-        <v>8.2684105351115783E-2</v>
+        <v>8.1004911447804848E-2</v>
       </c>
       <c r="Y1161" s="64">
-        <v>7.9445635509598211E-2</v>
+        <v>8.4586033788090653E-2</v>
       </c>
       <c r="Z1161" s="64">
-        <v>7.6842879656509988E-2</v>
+        <v>8.9742735334584725E-2</v>
       </c>
     </row>
     <row r="1162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -62022,38 +62745,38 @@
       <c r="E1162" s="34"/>
       <c r="F1162" s="34"/>
       <c r="G1162" s="34"/>
-      <c r="P1162" s="72">
-        <v>6.0818619709693503E-2</v>
-      </c>
-      <c r="Q1162" s="72">
-        <v>5.9845417364931069E-2</v>
+      <c r="P1162" s="71">
+        <v>9.8638818697891928E-2</v>
+      </c>
+      <c r="Q1162" s="71">
+        <v>8.8551830627316475E-2</v>
       </c>
       <c r="R1162" s="64">
-        <v>5.9146507900436164E-2</v>
-      </c>
-      <c r="S1162" s="72">
-        <v>5.8731684422405325E-2</v>
+        <v>7.9113948585456687E-2</v>
+      </c>
+      <c r="S1162" s="71">
+        <v>7.0586025629125915E-2</v>
       </c>
       <c r="T1162" s="64">
-        <v>5.8606979570804817E-2</v>
+        <v>6.3336696846685581E-2</v>
       </c>
       <c r="U1162" s="64">
-        <v>5.8774240061233843E-2</v>
+        <v>5.7848658763901155E-2</v>
       </c>
       <c r="V1162" s="64">
-        <v>5.923099253078104E-2</v>
+        <v>5.4655077294937543E-2</v>
       </c>
       <c r="W1162" s="64">
-        <v>5.9970622796752866E-2</v>
+        <v>5.4163342100067166E-2</v>
       </c>
       <c r="X1162" s="64">
-        <v>6.0982839078895623E-2</v>
+        <v>5.6444112011636953E-2</v>
       </c>
       <c r="Y1162" s="64">
-        <v>6.22543465683933E-2</v>
+        <v>6.1188135566591036E-2</v>
       </c>
       <c r="Z1162" s="64">
-        <v>6.3769637071539362E-2</v>
+        <v>6.7880911068199587E-2</v>
       </c>
     </row>
     <row r="1163" spans="1:26" ht="15" x14ac:dyDescent="0.15">
@@ -62088,76 +62811,105 @@
       <c r="F1166" s="34"/>
       <c r="G1166" s="34"/>
       <c r="S1166" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1166" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="T1166" s="64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:26" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="1167" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1167" s="34"/>
       <c r="C1167" s="34"/>
       <c r="D1167" s="34"/>
       <c r="E1167" s="34"/>
       <c r="F1167" s="34"/>
       <c r="G1167" s="34"/>
+      <c r="I1167" s="36"/>
+      <c r="J1167" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1167" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="Q1167" s="64">
         <v>0</v>
       </c>
-      <c r="R1167" s="77">
+      <c r="R1167" s="74">
         <f ca="1">-Q1167</f>
         <v>0</v>
       </c>
-      <c r="S1167" s="74">
-        <v>0.12367235307783846</v>
-      </c>
-      <c r="T1167" s="63">
-        <v>6.0818619709693503E-2</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:26" ht="15" x14ac:dyDescent="0.15">
+      <c r="S1167" s="72">
+        <v>0.11327993737639525</v>
+      </c>
+      <c r="T1167" s="57">
+        <v>9.8638818697891928E-2</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1168" s="34"/>
       <c r="C1168" s="34"/>
       <c r="D1168" s="34"/>
       <c r="E1168" s="34"/>
       <c r="F1168" s="34"/>
       <c r="G1168" s="34"/>
+      <c r="I1168" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1168" s="63">
+        <f ca="1">SQRT(SUMSQ(P1129:P1158)/COUNT(P1129:P1158))</f>
+        <v>0.11327993737639525</v>
+      </c>
+      <c r="K1168" s="63">
+        <f ca="1">SQRT(SUMSQ(Q1129:Q1158)/COUNT(Q1129:Q1158))</f>
+        <v>7.9154357420591404E-2</v>
+      </c>
       <c r="Q1168" s="64">
         <v>-5</v>
       </c>
-      <c r="R1168" s="77">
-        <f t="shared" ref="R1168:R1173" ca="1" si="24">-Q1168</f>
+      <c r="R1168" s="74">
+        <f t="shared" ref="R1168:R1173" ca="1" si="32">-Q1168</f>
         <v>5</v>
       </c>
-      <c r="S1168" s="74">
-        <v>0.11757392232569117</v>
-      </c>
-      <c r="T1168" s="63">
-        <v>5.9845417364931069E-2</v>
-      </c>
-    </row>
-    <row r="1169" spans="2:20" ht="15" x14ac:dyDescent="0.15">
+      <c r="S1168" s="72">
+        <v>0.10477435585740139</v>
+      </c>
+      <c r="T1168" s="57">
+        <v>8.8551830627316475E-2</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:20" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1169" s="34"/>
       <c r="C1169" s="34"/>
       <c r="D1169" s="34"/>
       <c r="E1169" s="34"/>
       <c r="F1169" s="34"/>
       <c r="G1169" s="34"/>
+      <c r="I1169" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1169" s="71">
+        <f ca="1">_xlfn.STDEV.P(P1129:P1158)</f>
+        <v>9.8638818697891928E-2</v>
+      </c>
+      <c r="K1169" s="75">
+        <f ca="1">_xlfn.STDEV.P(Q1129:Q1158)</f>
+        <v>5.4332431427115996E-2</v>
+      </c>
       <c r="Q1169" s="64">
         <v>-10</v>
       </c>
-      <c r="R1169" s="77">
-        <f t="shared" ca="1" si="24"/>
+      <c r="R1169" s="74">
+        <f t="shared" ca="1" si="32"/>
         <v>10</v>
       </c>
-      <c r="S1169" s="75">
-        <v>0.11167217618931408</v>
-      </c>
-      <c r="T1169" s="73">
-        <v>5.9146507900436164E-2</v>
-      </c>
-    </row>
-    <row r="1170" spans="2:20" ht="15" x14ac:dyDescent="0.15">
+      <c r="S1169" s="68">
+        <v>9.7102765556222589E-2</v>
+      </c>
+      <c r="T1169" s="69">
+        <v>7.9113948585456687E-2</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1170" s="34"/>
       <c r="C1170" s="34"/>
       <c r="D1170" s="34"/>
@@ -62167,15 +62919,15 @@
       <c r="Q1170" s="64">
         <v>-15</v>
       </c>
-      <c r="R1170" s="77">
-        <f t="shared" ca="1" si="24"/>
+      <c r="R1170" s="74">
+        <f t="shared" ca="1" si="32"/>
         <v>15</v>
       </c>
-      <c r="S1170" s="74">
-        <v>0.10599997210961042</v>
-      </c>
-      <c r="T1170" s="63">
-        <v>5.8731684422405325E-2</v>
+      <c r="S1170" s="72">
+        <v>9.0477558057233579E-2</v>
+      </c>
+      <c r="T1170" s="57">
+        <v>7.0586025629125915E-2</v>
       </c>
     </row>
     <row r="1171" spans="2:20" ht="15" x14ac:dyDescent="0.15">
@@ -62188,15 +62940,15 @@
       <c r="Q1171" s="64">
         <v>-20</v>
       </c>
-      <c r="R1171" s="77">
-        <f t="shared" ca="1" si="24"/>
+      <c r="R1171" s="74">
+        <f t="shared" ca="1" si="32"/>
         <v>20</v>
       </c>
-      <c r="S1171" s="75">
-        <v>0.10059614638837104</v>
-      </c>
-      <c r="T1171" s="73">
-        <v>5.8606979570804817E-2</v>
+      <c r="S1171" s="68">
+        <v>8.5143349389916578E-2</v>
+      </c>
+      <c r="T1171" s="69">
+        <v>6.3336696846685581E-2</v>
       </c>
     </row>
     <row r="1172" spans="2:20" ht="15" x14ac:dyDescent="0.15">
@@ -62209,15 +62961,15 @@
       <c r="Q1172" s="64">
         <v>-25</v>
       </c>
-      <c r="R1172" s="77">
-        <f t="shared" ca="1" si="24"/>
+      <c r="R1172" s="74">
+        <f t="shared" ca="1" si="32"/>
         <v>25</v>
       </c>
-      <c r="S1172" s="75">
-        <v>9.5506265122841022E-2</v>
-      </c>
-      <c r="T1172" s="73">
-        <v>5.8774240061233843E-2</v>
+      <c r="S1172" s="68">
+        <v>8.135447977011924E-2</v>
+      </c>
+      <c r="T1172" s="69">
+        <v>5.7848658763901155E-2</v>
       </c>
     </row>
     <row r="1173" spans="2:20" ht="15" x14ac:dyDescent="0.15">
@@ -62230,15 +62982,15 @@
       <c r="Q1173" s="64">
         <v>-30</v>
       </c>
-      <c r="R1173" s="77">
-        <f t="shared" ca="1" si="24"/>
+      <c r="R1173" s="74">
+        <f t="shared" ca="1" si="32"/>
         <v>30</v>
       </c>
-      <c r="S1173" s="75">
-        <v>9.0783148853791365E-2</v>
-      </c>
-      <c r="T1173" s="73">
-        <v>5.923099253078104E-2</v>
+      <c r="S1173" s="68">
+        <v>7.9332671781555841E-2</v>
+      </c>
+      <c r="T1173" s="69">
+        <v>5.4655077294937543E-2</v>
       </c>
     </row>
     <row r="1174" spans="2:20" ht="15" x14ac:dyDescent="0.15">
@@ -62251,15 +63003,15 @@
       <c r="Q1174" s="64">
         <v>-31</v>
       </c>
-      <c r="R1174" s="77">
+      <c r="R1174" s="74">
         <f ca="1">-Q1175</f>
         <v>35</v>
       </c>
-      <c r="S1174" s="75">
-        <v>8.648690642216493E-2</v>
-      </c>
-      <c r="T1174" s="73">
-        <v>5.9970622796752866E-2</v>
+      <c r="S1174" s="68">
+        <v>7.9213346383885247E-2</v>
+      </c>
+      <c r="T1174" s="69">
+        <v>5.4163342100067166E-2</v>
       </c>
     </row>
     <row r="1175" spans="2:20" ht="15" x14ac:dyDescent="0.15">
@@ -62272,15 +63024,15 @@
       <c r="Q1175" s="64">
         <v>-35</v>
       </c>
-      <c r="R1175" s="77">
+      <c r="R1175" s="74">
         <f ca="1">-Q1176</f>
         <v>40</v>
       </c>
-      <c r="S1175" s="75">
-        <v>8.2684105351115783E-2</v>
-      </c>
-      <c r="T1175" s="73">
-        <v>6.0982839078895623E-2</v>
+      <c r="S1175" s="68">
+        <v>8.1004911447804848E-2</v>
+      </c>
+      <c r="T1175" s="69">
+        <v>5.6444112011636953E-2</v>
       </c>
     </row>
     <row r="1176" spans="2:20" ht="15" x14ac:dyDescent="0.15">
@@ -62293,15 +63045,15 @@
       <c r="Q1176" s="64">
         <v>-40</v>
       </c>
-      <c r="R1176" s="77">
+      <c r="R1176" s="74">
         <f ca="1">-Q1177</f>
         <v>45</v>
       </c>
-      <c r="S1176" s="75">
-        <v>7.9445635509598211E-2</v>
-      </c>
-      <c r="T1176" s="73">
-        <v>6.22543465683933E-2</v>
+      <c r="S1176" s="68">
+        <v>8.4586033788090653E-2</v>
+      </c>
+      <c r="T1176" s="69">
+        <v>6.1188135566591036E-2</v>
       </c>
     </row>
     <row r="1177" spans="2:20" ht="15" x14ac:dyDescent="0.15">
@@ -62314,15 +63066,15 @@
       <c r="Q1177" s="64">
         <v>-45</v>
       </c>
-      <c r="R1177" s="77">
+      <c r="R1177" s="74">
         <f ca="1">-Q1178</f>
         <v>50</v>
       </c>
-      <c r="S1177" s="75">
-        <v>7.6842879656509988E-2</v>
-      </c>
-      <c r="T1177" s="73">
-        <v>6.3769637071539362E-2</v>
+      <c r="S1177" s="68">
+        <v>8.9742735334584725E-2</v>
+      </c>
+      <c r="T1177" s="69">
+        <v>6.7880911068199587E-2</v>
       </c>
     </row>
     <row r="1178" spans="2:20" ht="15" x14ac:dyDescent="0.15">
@@ -62367,14 +63119,14 @@
       <c r="E1182" s="34"/>
       <c r="F1182" s="34"/>
       <c r="G1182" s="34"/>
-      <c r="R1182" s="76">
+      <c r="R1182" s="73">
         <f ca="1">-Q1174</f>
         <v>31</v>
       </c>
-      <c r="S1182" s="74">
+      <c r="S1182" s="72">
         <v>8.9887704247340022E-2</v>
       </c>
-      <c r="T1182" s="74">
+      <c r="T1182" s="72">
         <v>5.935656851088842E-2</v>
       </c>
     </row>
@@ -62811,10 +63563,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AH129"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
